--- a/tut06/output/2001EE33.xlsx
+++ b/tut06/output/2001EE33.xlsx
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
